--- a/MoldOffsetRecord_SiPlet/MES/SiPlet Offset.xlsx
+++ b/MoldOffsetRecord_SiPlet/MES/SiPlet Offset.xlsx
@@ -1,64 +1,309 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\156607\Amkor_Project\MoldOffsetRecord\MoldOffsetRecord\MES\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82BC650-40C6-4807-A661-124205336636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="270" windowWidth="21600" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Lot</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="89">
+  <si>
+    <t xml:space="preserve">Lot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strip ID</t>
+    <t xml:space="preserve">Strip ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
+    <t xml:space="preserve">X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
+    <t xml:space="preserve">Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Point</t>
+    <t xml:space="preserve">Point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L/R</t>
+    <t xml:space="preserve">L/R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time</t>
+    <t xml:space="preserve">Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">R-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">R-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNN0603820026250AXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923062302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNN1702820026260B1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923105717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNN2005820026250AR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923030148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNN2007820026250AXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923062323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNN3404820026260B2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923105737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNN6104820026250AR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923030127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7993713187047945"/>
+        <fgColor theme="8" tint="0.799371318704795"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,11 +360,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +376,996 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,11 +1374,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -411,18 +1646,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -436,54 +1672,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="1">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="1">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -501,8 +1744,10 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -520,6 +1765,1400 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="134" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="140" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="142" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="143" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="144" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="147" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="148" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="157" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="160" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="161" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="163" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="164" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="165" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="180" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="181" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="182" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="184" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="186" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="188" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="190" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="192" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="193" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="194" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="195" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="196" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="197" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="198" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="199" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="201" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="202" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" s="203" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="204" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="205" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="206" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="207" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="208" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="209" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="210" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="211" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="212" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="213" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="214" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="215" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="216" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="217" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="218" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="219" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="222" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="223" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="225" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="231" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="233" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="235" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="236" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="237" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="238" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="239" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="240" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="241" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="243" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="244" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="245" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="246" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="248" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="249" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="250" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="251" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="252" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="253" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="254" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="255" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" s="256" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="257" t="s">
+        <v>81</v>
+      </c>
+      <c r="N35" s="258" t="s">
+        <v>82</v>
+      </c>
+      <c r="O35" s="259" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="260" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="261" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="262" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="263" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="264" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="265" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="266" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="267" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="268" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="269" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="270" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="271" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="272" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="273" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="274" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="275" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="276" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="277" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="278" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="279" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="280" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="282" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="286" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="288" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="289" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="290" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="291" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="292" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="293" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="294" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="295" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="296" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" s="297" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="298" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="299" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="300" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="301" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="302" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="303" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="304" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="305" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="306" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="307" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="308" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="309" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="310" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="311" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="312" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="313" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" s="314" t="s">
+        <v>47</v>
+      </c>
+      <c r="P41" s="315" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="316" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="317" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="318" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="319" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="320" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="321" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="322" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="323" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="324" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="325" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="326" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="327" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="329" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="330" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="331" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="332" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="333" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/MoldOffsetRecord_SiPlet/MES/SiPlet Offset.xlsx
+++ b/MoldOffsetRecord_SiPlet/MES/SiPlet Offset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="104">
   <si>
     <t xml:space="preserve">Lot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,30 @@
     <t xml:space="preserve">0.043</t>
   </si>
   <si>
+    <t xml:space="preserve">NNN2408820026260B2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923144110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.050</t>
+  </si>
+  <si>
     <t xml:space="preserve">NNN3404820026260B2L</t>
   </si>
   <si>
@@ -282,6 +306,27 @@
   </si>
   <si>
     <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNN6002820026260B2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923144129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017</t>
   </si>
   <si>
     <t xml:space="preserve">NNN6104820026250AR1</t>
@@ -364,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +421,336 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2827,10 +3202,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="247" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="248" t="s">
         <v>76</v>
@@ -2839,40 +3214,40 @@
         <v>77</v>
       </c>
       <c r="F35" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="251" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="252" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="253" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="251" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="252" t="s">
+      <c r="J35" s="254" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="253" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="254" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35" s="255" t="s">
+      <c r="L35" s="256" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="257" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="256" t="s">
-        <v>80</v>
-      </c>
-      <c r="M35" s="257" t="s">
+      <c r="N35" s="258" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" s="259" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="260" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="261" t="s">
         <v>81</v>
-      </c>
-      <c r="N35" s="258" t="s">
-        <v>82</v>
-      </c>
-      <c r="O35" s="259" t="s">
-        <v>31</v>
-      </c>
-      <c r="P35" s="260" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q35" s="261" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -2979,10 +3354,10 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -3059,52 +3434,52 @@
         <v>2</v>
       </c>
       <c r="B41" s="301" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="302" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="303" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="304" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="302" t="s">
+      <c r="G41" s="306" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="307" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="303" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="304" t="s">
+      <c r="I41" s="308" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="309" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="305" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="306" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41" s="307" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="308" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="309" t="s">
+      <c r="L41" s="311" t="s">
+        <v>88</v>
+      </c>
+      <c r="M41" s="312" t="s">
+        <v>89</v>
+      </c>
+      <c r="N41" s="313" t="s">
+        <v>90</v>
+      </c>
+      <c r="O41" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="310" t="s">
-        <v>38</v>
-      </c>
-      <c r="L41" s="311" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="312" t="s">
-        <v>47</v>
-      </c>
-      <c r="N41" s="313" t="s">
-        <v>39</v>
-      </c>
-      <c r="O41" s="314" t="s">
-        <v>47</v>
-      </c>
       <c r="P41" s="315" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="316" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -3157,6 +3532,470 @@
         <v>23</v>
       </c>
       <c r="Q42" s="333" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="337" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="340" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="341" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="342" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="343" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="344" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="345" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="346" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="347" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="348" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="349" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="350" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="351" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46" s="352" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="353" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="354" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="355" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="356" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="357" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="358" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="359" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="360" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="361" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="362" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="363" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47" s="365" t="s">
+        <v>90</v>
+      </c>
+      <c r="L47" s="366" t="s">
+        <v>97</v>
+      </c>
+      <c r="M47" s="367" t="s">
+        <v>45</v>
+      </c>
+      <c r="N47" s="368" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="369" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" s="370" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q47" s="371" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="372" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="373" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="374" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="375" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="376" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="377" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="378" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="379" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="380" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="381" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="382" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="383" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="384" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="385" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="386" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="387" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="388" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="389" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="390" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="392" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="394" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="395" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="396" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="397" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="398" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="399" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="400" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="401" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="402" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="403" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="404" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="405" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="406" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" s="407" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="408" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="409" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="410" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="411" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="412" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="413" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="414" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="415" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="416" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" s="417" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="418" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="419" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="420" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="421" t="s">
+        <v>59</v>
+      </c>
+      <c r="M53" s="422" t="s">
+        <v>47</v>
+      </c>
+      <c r="N53" s="423" t="s">
+        <v>39</v>
+      </c>
+      <c r="O53" s="424" t="s">
+        <v>47</v>
+      </c>
+      <c r="P53" s="425" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q53" s="426" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="427" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="428" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="429" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="430" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="431" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="432" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="433" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="434" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="435" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="436" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="437" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="438" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="439" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="440" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="441" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="442" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="443" t="s">
         <v>23</v>
       </c>
     </row>
